--- a/Excel/pedidos.xlsx
+++ b/Excel/pedidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56992\Desktop\Utal\8vo semestre\Construcción de Software\Unidad 2\Proyecto\laCartaDeNanaYRene\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isavo/Desktop/U/8º semestre/Construccion de Software/Repositorios/laCartaDeNanaYRene/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731C6F96-6486-4FF3-9A55-600C4B2C2D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5BF927-BC4F-C341-91F0-255B98DC328C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3048" yWindow="2664" windowWidth="10572" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13040" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Tipo de producto</t>
   </si>
@@ -52,12 +52,21 @@
     <t>Porcentaje descuento</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>2-Queque,1-Torta,</t>
+  </si>
+  <si>
     <t>05-10-2019</t>
   </si>
   <si>
     <t>06-10-2019</t>
   </si>
   <si>
+    <t>Alberto Hurtado</t>
+  </si>
+  <si>
     <t>albhurt@gmail.com</t>
   </si>
   <si>
@@ -67,94 +76,71 @@
     <t>Pendiente</t>
   </si>
   <si>
+    <t>1-Kuchen Manzana,</t>
+  </si>
+  <si>
     <t>07-10-2019</t>
   </si>
   <si>
+    <t>Carmen Ramirez</t>
+  </si>
+  <si>
     <t>cramirez@gmail.com</t>
   </si>
   <si>
     <t>9-47382938</t>
   </si>
   <si>
+    <t>1-Queque,</t>
+  </si>
+  <si>
+    <t>Marcelo Muñoz</t>
+  </si>
+  <si>
     <t>mmuñoz@gmail.com</t>
   </si>
   <si>
     <t>9-62844758</t>
   </si>
   <si>
-    <t>30-10-2019</t>
+    <t>1-Pie de Limon,</t>
   </si>
   <si>
     <t>31-10-2019</t>
   </si>
   <si>
+    <t>Pedro Casillas</t>
+  </si>
+  <si>
+    <t>pcasillas@gmail.com</t>
+  </si>
+  <si>
     <t>9-37284547</t>
   </si>
   <si>
-    <t>29-10-2019</t>
+    <t>1-Tartaleta Durazno,</t>
   </si>
   <si>
     <t>30-11-2019</t>
   </si>
   <si>
+    <t>Lionel Mauro</t>
+  </si>
+  <si>
     <t>limau@gmail.com</t>
   </si>
   <si>
     <t>9-38274654</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Alberto Hurtado</t>
-  </si>
-  <si>
-    <t>Carmen Ramirez</t>
-  </si>
-  <si>
-    <t>Marcelo Muñoz</t>
-  </si>
-  <si>
-    <t>Lionel Mauro</t>
-  </si>
-  <si>
-    <t>1-Torta,2-1-Queque,</t>
-  </si>
-  <si>
-    <t>1-Kuchen Manzana,</t>
-  </si>
-  <si>
-    <t>1-Queque,</t>
-  </si>
-  <si>
-    <t>1-Pie de Limon,</t>
-  </si>
-  <si>
-    <t>1-Tartaleta Durazno,</t>
-  </si>
-  <si>
-    <t>Pedro Casillas</t>
-  </si>
-  <si>
-    <t>pcasillas@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,16 +163,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,16 +485,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,33 +523,33 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43758</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>4800</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -580,30 +561,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43755</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
       <c r="H3">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -615,30 +596,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43756</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>3000</v>
+        <v>450</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -650,30 +631,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43751</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5">
-        <v>4900</v>
+        <v>900</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -685,30 +666,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43747</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -721,9 +702,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{586F87A8-FD8C-4681-A8EE-B9E3745D7894}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>